--- a/grupo1/Casos de Testes - Grupo 1.xlsx
+++ b/grupo1/Casos de Testes - Grupo 1.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="204" yWindow="516" windowWidth="22716" windowHeight="8940"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Casos de Teste" sheetId="1" r:id="rId3"/>
+    <sheet name="Casos de Teste" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Entrada (Salário; Qtde de dependentes)</t>
   </si>
@@ -23,20 +26,91 @@
   </si>
   <si>
     <t>Resultado do teste</t>
+  </si>
+  <si>
+    <t>(3.500,00;1)</t>
+  </si>
+  <si>
+    <t>(-1.491,85;385,00;4.610,81)</t>
+  </si>
+  <si>
+    <t>(9.000,00;2)</t>
+  </si>
+  <si>
+    <t>(-14.827,90;990,00;22.837,90)</t>
+  </si>
+  <si>
+    <t>(1.250,00;0)</t>
+  </si>
+  <si>
+    <t>(1.980,00;3)</t>
+  </si>
+  <si>
+    <t>(2.650,00;2)</t>
+  </si>
+  <si>
+    <t>(4.650,00;0)</t>
+  </si>
+  <si>
+    <t>(5.980,00;4)</t>
+  </si>
+  <si>
+    <t>(980,00;0)</t>
+  </si>
+  <si>
+    <t>(22.980,30;2)</t>
+  </si>
+  <si>
+    <t>(37.650,00;4)</t>
+  </si>
+  <si>
+    <t>(3.030,99;385,00;84,01;280,00)</t>
+  </si>
+  <si>
+    <t>(7.048,38;621,04;1.330,58;720,00)</t>
+  </si>
+  <si>
+    <t>(1.150,00;100,00;0;100,00)</t>
+  </si>
+  <si>
+    <t>(1.801,80;178,20;0;158,40)</t>
+  </si>
+  <si>
+    <t>(2.401,88;238,50;9,62;212,00)</t>
+  </si>
+  <si>
+    <t>(3.843,47;511,50;295,03;372,00)</t>
+  </si>
+  <si>
+    <t>(4.959,96;621,04;399,00;478,40)</t>
+  </si>
+  <si>
+    <t>(901,50;78,40;0;78,40)</t>
+  </si>
+  <si>
+    <t>(27.923,90;621,04;9.105,06;3.012,00)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,48 +118,335 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.86"/>
-    <col customWidth="1" min="2" max="2" width="39.86"/>
-    <col customWidth="1" min="3" max="3" width="27.14"/>
-    <col customWidth="1" min="4" max="4" width="21.0"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -99,7 +460,140 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/grupo1/Casos de Testes - Grupo 1.xlsx
+++ b/grupo1/Casos de Testes - Grupo 1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hudso\aulasabado\grupo1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="204" yWindow="516" windowWidth="22716" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Teste" sheetId="1" r:id="rId1"/>
@@ -64,38 +69,38 @@
     <t>(37.650,00;4)</t>
   </si>
   <si>
-    <t>(3.030,99;385,00;84,01;280,00)</t>
-  </si>
-  <si>
-    <t>(7.048,38;621,04;1.330,58;720,00)</t>
-  </si>
-  <si>
-    <t>(1.150,00;100,00;0;100,00)</t>
-  </si>
-  <si>
-    <t>(1.801,80;178,20;0;158,40)</t>
-  </si>
-  <si>
-    <t>(2.401,88;238,50;9,62;212,00)</t>
-  </si>
-  <si>
-    <t>(3.843,47;511,50;295,03;372,00)</t>
-  </si>
-  <si>
-    <t>(4.959,96;621,04;399,00;478,40)</t>
-  </si>
-  <si>
-    <t>(901,50;78,40;0;78,40)</t>
-  </si>
-  <si>
-    <t>(27.923,90;621,04;9.105,06;3.012,00)</t>
+    <t>(3.030,99;385,00;280,00;84,01)</t>
+  </si>
+  <si>
+    <t>(7.048,38;621,04;720,00;1.330,58)</t>
+  </si>
+  <si>
+    <t>(1.150,00;100,00;100,00;0)</t>
+  </si>
+  <si>
+    <t>(1.801,80;178,20;158,40;0)</t>
+  </si>
+  <si>
+    <t>(2.401,88;238,50;212,00;9,62)</t>
+  </si>
+  <si>
+    <t>(3.843,47;511,50;372,00;295,03)</t>
+  </si>
+  <si>
+    <t>(4.959,96;621,04;478,40;399,00)</t>
+  </si>
+  <si>
+    <t>(901,50;78,40;78,40;0)</t>
+  </si>
+  <si>
+    <t>(27.923,90;621,04;3.012,00;9.105,06)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -144,13 +149,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,9 +201,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,9 +235,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,9 +270,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,14 +446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="2" max="2" width="39.88671875" customWidth="1"/>
@@ -446,7 +461,7 @@
     <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -472,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -484,7 +499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -494,7 +509,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -504,7 +519,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -514,7 +529,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -524,7 +539,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -534,7 +549,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -544,7 +559,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -552,7 +567,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -562,31 +577,31 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/grupo1/Casos de Testes - Grupo 1.xlsx
+++ b/grupo1/Casos de Testes - Grupo 1.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
